--- a/defillama_history/defillama_hist.xlsx
+++ b/defillama_history/defillama_hist.xlsx
@@ -10,6 +10,7 @@
     <sheet name="08 08 2023 14_50_19" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="09 08 2023 15_14_47" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="09 08 2023 15_22_28" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="09 08 2023 15_56_07" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2487,4 +2488,556 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>tvlUsd</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>7d avg discounted apy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>fc7701fc-e290-4606-a8be-9e4ba6c5f91a</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>convex-finance</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ETH-RETH</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4900968</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.39656801787624</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>5685fa0d-a7cf-4b60-9b77-ff23b4583f81</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>uniswap-v3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RETH-WETH</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4910239</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.87210053388597</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>febfb5b4-7485-44bc-ae4a-7b192ac61fe3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>curve-dex</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ETH-RETH</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5194963</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.22304285669234</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>20e6bdb3-bea2-43fb-8296-b6d5575efb3c</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pendle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SFRXETH</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>8147881</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.08591319578853</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>98fb5491-e12b-4197-89a9-5b6524b08f17</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>unsheth</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UNSHETH</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4532881</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.463784526153727</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>423681e3-4787-40ce-ae43-e9f67c5269b3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>origin-ether</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OETH</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>82172396</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.223950592934097</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>c9873dab-0979-478c-b48c-3c3a0c935449</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>convex-finance</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>STETH-FRXETH</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4641906</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.609032449473597</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>e144a863-8013-49d4-8c3c-637ffd415308</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>uniswap-v2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>STETH-WETH</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4359414</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.958648521646071</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>ecd0c563-8aa2-423e-b8e9-d3259a316df9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>uniswap-v3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>WSTETH-WETH</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>24966525</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.753540134682696</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>d5a5e303-325e-4b01-a2dc-96494eef2f8b</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>fraxlend</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SFRXETH</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>81573529</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.709029432513126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>e378a7c2-6285-4993-9397-87ac9c8adc15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>convex-finance</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ETH-STETH</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>52656174</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.564128931598975</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>08eaf098-4957-4922-bfca-cc0c46505a43</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>curve-dex</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ETH-STETH</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>54977472</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.924443479762296</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>991df258-b474-4a40-8482-acf080e8ab39</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>curve-dex</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>STETH-FRXETH</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4679211</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.319388213018287</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>b2fe5b13-eca4-47cc-b3fd-1de24a296018</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>stafi</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>RETH</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20673386</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.076106989989595</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>a4b5b995-99e7-4b8f-916d-8940b5627d70</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>RETH-WETH</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>49924176</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.86663013300314</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>e72916f7-a2d1-47ad-a4b9-2b054337cfd6</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>instadapp</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>72841907</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.825310416335873</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>ce70e358-6668-498c-9afa-651f770eac27</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>WSTETH-SFRXETH-RETH</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>27264326</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.581568486844161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>c182eb7e-c3aa-4a5b-aeaa-4b1ef05cbf6d</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>uwu-lend</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>WETH</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3661893</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.500224802447938</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>07e0cc9c-7cd9-4524-bc64-de989fbbac50</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>gearbox</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>WETH</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4431995</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.420194389609766</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>4135ffa3-e55d-49dc-8eb0-00436d9742f6</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>curve-dex</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>WETH-STETH</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>6303313</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.212855952685706</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>77020688-e1f9-443c-9388-e51ace15cc32</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>frax-ether</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SFRXETH</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>458385614</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.164838432057987</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>ef7e5024-51cf-48c3-81e9-92ec1170c212</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>hord</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>HETH</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3311928</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.050072662026738</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>